--- a/Taller1/evaluacion.xlsx
+++ b/Taller1/evaluacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\java\repo-anaalg\Taller1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E8CD33-9934-4CFD-B898-FEB709E30038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8FD64A-30C6-4EE4-ADF4-990F7D9E35BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Datos</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Recursivo</t>
+  </si>
+  <si>
+    <t>3n³+6n²+6n+9</t>
   </si>
 </sst>
 </file>
@@ -200,6 +203,45 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$C$2:$C$11</c:f>
@@ -243,6 +285,78 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5E8A-453F-AC3E-60622FB55FB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3060609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24241209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81541809</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>192962409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>376503009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>650163609</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1031944209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1539844809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2191865409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3006006009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F7E7-41FB-89E9-B70D455381EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -265,6 +379,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1351,10 +1466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1362,7 +1477,7 @@
     <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1373,93 +1488,136 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>100</v>
+      </c>
+      <c r="B2">
+        <f>3*POWER(A2,3)+6*POWER(A2,2)+6*A2+9</f>
+        <v>3060609</v>
       </c>
       <c r="C2">
         <f>A2*A2+A2+1</f>
         <v>10101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>200</v>
       </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B11" si="0">3*POWER(A3,3)+6*POWER(A3,2)+6*A3+9</f>
+        <v>24241209</v>
+      </c>
       <c r="C3">
-        <f t="shared" ref="C3:C11" si="0">A3*A3+A3+1</f>
+        <f t="shared" ref="C3:C11" si="1">A3*A3+A3+1</f>
         <v>40201</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>300</v>
       </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>81541809</v>
+      </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90301</v>
       </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>400</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>192962409</v>
+      </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>160401</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>500</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>376503009</v>
+      </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>250501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>600</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>650163609</v>
+      </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>360601</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>700</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>1031944209</v>
+      </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>490701</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>800</v>
       </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>1539844809</v>
+      </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>640801</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>900</v>
       </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2191865409</v>
+      </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>810901</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1000</v>
       </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3006006009</v>
+      </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1001001</v>
       </c>
     </row>
